--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoTongHopCongNo.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoTongHopCongNo.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -47,12 +47,18 @@
   </si>
   <si>
     <t>Phải trả</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,12 +181,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -222,6 +254,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,7 +278,10 @@
     <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,386 +589,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="4" customWidth="1"/>
-    <col min="4" max="7" width="15.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="35.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="4" customWidth="1"/>
+    <col min="6" max="9" width="15.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
-        <v>6</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="6" t="s">
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="J5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="K5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="12">
-        <f>SUM(D$6:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>SUM(E$6:E29)</f>
-        <v>0</v>
-      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="12">
         <f>SUM(F$6:F29)</f>
         <v>0</v>
@@ -947,18 +1043,28 @@
         <f>SUM(I$6:I29)</f>
         <v>0</v>
       </c>
+      <c r="J30" s="12">
+        <f>SUM(J$6:J29)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <f>SUM(K$6:K29)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoTongHopCongNo.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoTongHopCongNo.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>BÁO CÁO TỔNG HỢP CÔNG NỢ</t>
   </si>
@@ -102,7 +99,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +131,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -212,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -245,24 +236,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,7 +260,7 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,40 +595,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -654,57 +639,57 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,43 +1004,9 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="12">
-        <f>SUM(F$6:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <f>SUM(G$6:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
-        <f>SUM(H$6:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <f>SUM(I$6:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <f>SUM(J$6:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <f>SUM(K$6:K29)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F4:G4"/>
